--- a/static/sample_questions.xlsx
+++ b/static/sample_questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!231649E_WongYanYi_FYP\231649E_WongYanYi_FYP\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\231649E_WongYanYi_FYP\231649E_WongYanYi_FYP\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E3458D-1C89-46D9-B9CE-387B1E1E518B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2CB6EB-046C-4015-BE41-68FCE736E3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1808" yWindow="1808" windowWidth="18195" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -411,6 +411,7 @@
   <cols>
     <col min="1" max="1" width="64.265625" customWidth="1"/>
     <col min="2" max="2" width="61.53125" customWidth="1"/>
+    <col min="3" max="3" width="13.53125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
